--- a/Protocols/Drug_combination_concentrations.xlsx
+++ b/Protocols/Drug_combination_concentrations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyal Dass\Documents\SRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyal Dass\Documents\GitHub\PD_Lab_book\Protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Crizotinib</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Final conc</t>
   </si>
   <si>
-    <t>11x conc</t>
-  </si>
-  <si>
     <t>Final conc (uM)</t>
   </si>
   <si>
@@ -84,6 +81,18 @@
   </si>
   <si>
     <t>S volume</t>
+  </si>
+  <si>
+    <t>Add 97.19uL SFM</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Add 95.77uL SFM</t>
+  </si>
+  <si>
+    <t>Add 96.90uL SFM</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,6 +270,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +626,9 @@
         <v>0</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -632,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>2</v>
@@ -644,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -656,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="17">
         <v>3.1019999999999999</v>
@@ -822,7 +836,9 @@
         <v>1</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -840,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>2</v>
@@ -864,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="17">
         <v>2.8125624999999999</v>
@@ -897,7 +913,7 @@
         <v>1.6875374999999997</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" ref="G23:G28" si="5">4.091*B23</f>
+        <f>4.091*B23</f>
         <v>0.40910000000000002</v>
       </c>
     </row>
@@ -913,15 +929,15 @@
         <v>0.4</v>
       </c>
       <c r="E24" s="17">
-        <f t="shared" ref="E24:E28" si="6">G24/D24*1.1</f>
+        <f t="shared" ref="E24:E28" si="5">G24/D24*1.1</f>
         <v>2.8125624999999999</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" ref="F24:F28" si="7">2.8125625-E24</f>
+        <f t="shared" ref="F24:F28" si="6">2.8125625-E24</f>
         <v>0</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G23:G28" si="7">4.091*B24</f>
         <v>1.02275</v>
       </c>
     </row>
@@ -937,15 +953,15 @@
         <v>4</v>
       </c>
       <c r="E25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.56251250000000008</v>
+      </c>
+      <c r="F25" s="17">
         <f t="shared" si="6"/>
-        <v>0.56251250000000008</v>
-      </c>
-      <c r="F25" s="17">
+        <v>2.2500499999999999</v>
+      </c>
+      <c r="G25" s="17">
         <f t="shared" si="7"/>
-        <v>2.2500499999999999</v>
-      </c>
-      <c r="G25" s="17">
-        <f t="shared" si="5"/>
         <v>2.0455000000000001</v>
       </c>
     </row>
@@ -961,15 +977,15 @@
         <v>4</v>
       </c>
       <c r="E26" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1250250000000002</v>
+      </c>
+      <c r="F26" s="17">
         <f t="shared" si="6"/>
-        <v>1.1250250000000002</v>
-      </c>
-      <c r="F26" s="17">
+        <v>1.6875374999999997</v>
+      </c>
+      <c r="G26" s="17">
         <f t="shared" si="7"/>
-        <v>1.6875374999999997</v>
-      </c>
-      <c r="G26" s="17">
-        <f t="shared" si="5"/>
         <v>4.0910000000000002</v>
       </c>
     </row>
@@ -985,15 +1001,15 @@
         <v>40</v>
       </c>
       <c r="E27" s="17">
+        <f t="shared" si="5"/>
+        <v>0.28125625000000004</v>
+      </c>
+      <c r="F27" s="17">
         <f t="shared" si="6"/>
-        <v>0.28125625000000004</v>
-      </c>
-      <c r="F27" s="17">
+        <v>2.5313062499999996</v>
+      </c>
+      <c r="G27" s="17">
         <f t="shared" si="7"/>
-        <v>2.5313062499999996</v>
-      </c>
-      <c r="G27" s="17">
-        <f t="shared" si="5"/>
         <v>10.227500000000001</v>
       </c>
     </row>
@@ -1009,21 +1025,24 @@
         <v>40</v>
       </c>
       <c r="E28" s="17">
+        <f t="shared" si="5"/>
+        <v>0.56251250000000008</v>
+      </c>
+      <c r="F28" s="17">
         <f t="shared" si="6"/>
-        <v>0.56251250000000008</v>
-      </c>
-      <c r="F28" s="17">
+        <v>2.2500499999999999</v>
+      </c>
+      <c r="G28" s="17">
         <f t="shared" si="7"/>
-        <v>2.2500499999999999</v>
-      </c>
-      <c r="G28" s="17">
-        <f t="shared" si="5"/>
         <v>20.455000000000002</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1031,16 +1050,16 @@
         <v>9</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="E38" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="F38" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>3</v>
@@ -1051,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" s="17">
         <v>4.2270250000000003</v>

--- a/Protocols/Drug_combination_concentrations.xlsx
+++ b/Protocols/Drug_combination_concentrations.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8070" windowHeight="3930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8070" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cr+Se" sheetId="2" r:id="rId1"/>
+    <sheet name="Cr + AB" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Crizotinib</t>
   </si>
@@ -86,13 +88,34 @@
     <t>Add 97.19uL SFM</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Add 95.77uL SFM</t>
   </si>
   <si>
     <t>Add 96.90uL SFM</t>
+  </si>
+  <si>
+    <t>ABT-737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC50 = </t>
+  </si>
+  <si>
+    <t>Crizotinib + ABT-737 combination</t>
+  </si>
+  <si>
+    <t>A dilution</t>
+  </si>
+  <si>
+    <t>A volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 4.209</t>
+  </si>
+  <si>
+    <t>Add 94.0uL SFM</t>
+  </si>
+  <si>
+    <t>Add 97.11uL SFM</t>
   </si>
 </sst>
 </file>
@@ -562,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +650,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -697,15 +720,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E11" s="17">
-        <f>G11/D11*1.1</f>
+        <f t="shared" ref="E11:E16" si="1">G11/D11*1.1</f>
         <v>3.1019999999999999</v>
       </c>
       <c r="F11" s="17">
-        <f>3.102-E11</f>
+        <f t="shared" ref="F11:F16" si="2">3.102-E11</f>
         <v>0</v>
       </c>
       <c r="G11" s="17">
-        <f>0.1128*B11</f>
+        <f t="shared" ref="G11:G16" si="3">0.1128*B11</f>
         <v>1.128E-2</v>
       </c>
     </row>
@@ -721,15 +744,15 @@
         <v>0.04</v>
       </c>
       <c r="E12" s="17">
-        <f t="shared" ref="E12:E16" si="1">G12/D12*1.1</f>
+        <f t="shared" si="1"/>
         <v>0.77549999999999997</v>
       </c>
       <c r="F12" s="17">
-        <f t="shared" ref="F12:F16" si="2">3.102-E12</f>
+        <f t="shared" si="2"/>
         <v>2.3264999999999998</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" ref="G12:G16" si="3">0.1128*B12</f>
+        <f t="shared" si="3"/>
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
@@ -856,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>2</v>
@@ -889,7 +912,7 @@
         <v>2.8125624999999999</v>
       </c>
       <c r="G22" s="16">
-        <f>4.091*B22</f>
+        <f t="shared" ref="G22:G28" si="4">4.091*B22</f>
         <v>0</v>
       </c>
     </row>
@@ -898,22 +921,22 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" ref="C23:C28" si="4">11*G23</f>
+        <f t="shared" ref="C23:C28" si="5">11*G23</f>
         <v>4.5000999999999998</v>
       </c>
       <c r="D23" s="16">
         <v>0.4</v>
       </c>
       <c r="E23" s="17">
-        <f>G23/D23*1.1</f>
+        <f t="shared" ref="E23:E28" si="6">G23/D23*1.1</f>
         <v>1.1250250000000002</v>
       </c>
       <c r="F23" s="17">
-        <f>2.8125625-E23</f>
+        <f t="shared" ref="F23:F28" si="7">2.8125625-E23</f>
         <v>1.6875374999999997</v>
       </c>
       <c r="G23" s="17">
-        <f>4.091*B23</f>
+        <f t="shared" si="4"/>
         <v>0.40910000000000002</v>
       </c>
     </row>
@@ -922,22 +945,22 @@
         <v>0.25</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.250250000000001</v>
       </c>
       <c r="D24" s="16">
         <v>0.4</v>
       </c>
       <c r="E24" s="17">
-        <f t="shared" ref="E24:E28" si="5">G24/D24*1.1</f>
+        <f t="shared" si="6"/>
         <v>2.8125624999999999</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" ref="F24:F28" si="6">2.8125625-E24</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" ref="G23:G28" si="7">4.091*B24</f>
+        <f t="shared" si="4"/>
         <v>1.02275</v>
       </c>
     </row>
@@ -946,22 +969,22 @@
         <v>0.5</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.500500000000002</v>
       </c>
       <c r="D25" s="16">
         <v>4</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56251250000000008</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2500499999999999</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.0455000000000001</v>
       </c>
     </row>
@@ -970,22 +993,22 @@
         <v>1</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.001000000000005</v>
       </c>
       <c r="D26" s="16">
         <v>4</v>
       </c>
       <c r="E26" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1250250000000002</v>
       </c>
       <c r="F26" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6875374999999997</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.0910000000000002</v>
       </c>
     </row>
@@ -994,22 +1017,22 @@
         <v>2.5</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112.50250000000001</v>
       </c>
       <c r="D27" s="16">
         <v>40</v>
       </c>
       <c r="E27" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28125625000000004</v>
       </c>
       <c r="F27" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5313062499999996</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>10.227500000000001</v>
       </c>
     </row>
@@ -1018,22 +1041,22 @@
         <v>5</v>
       </c>
       <c r="C28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>225.00500000000002</v>
       </c>
       <c r="D28" s="16">
         <v>40</v>
       </c>
       <c r="E28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56251250000000008</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2500499999999999</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20.455000000000002</v>
       </c>
     </row>
@@ -1042,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1102,7 +1125,7 @@
         <v>1.1250250000000002</v>
       </c>
       <c r="G40" s="17">
-        <f>4.227025-F40-D40</f>
+        <f t="shared" ref="G40:G45" si="8">4.227025-F40-D40</f>
         <v>0</v>
       </c>
       <c r="H40" s="11"/>
@@ -1124,7 +1147,7 @@
         <v>2.8125624999999999</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" ref="G41:G45" si="8">4.227025-F41-D41</f>
+        <f t="shared" si="8"/>
         <v>0.63896250000000043</v>
       </c>
       <c r="H41" s="11"/>
@@ -1216,6 +1239,862 @@
         <v>3.5094125000000003</v>
       </c>
       <c r="H45" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <f>11*G10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" ref="C11:C16" si="0">11*G11</f>
+        <v>0.12408</v>
+      </c>
+      <c r="D11" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" ref="E11:E16" si="1">G11/D11*1.1</f>
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" ref="F11:F16" si="2">3.102-E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" ref="G11:G16" si="3">0.1128*B11</f>
+        <v>1.128E-2</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="1"/>
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="2"/>
+        <v>2.3264999999999998</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="3"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="1"/>
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="2"/>
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="3"/>
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2407999999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="2"/>
+        <v>2.7917999999999998</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="3"/>
+        <v>0.1128</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="0"/>
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="1"/>
+        <v>0.77549999999999986</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="2"/>
+        <v>2.3265000000000002</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="3"/>
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="0"/>
+        <v>6.2039999999999997</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="2"/>
+        <v>2.9468999999999999</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="3"/>
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <f t="shared" ref="C22:C28" si="4">11*G22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2.89</v>
+      </c>
+      <c r="G22" s="16">
+        <f>4.091*B22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" si="4"/>
+        <v>4.6299000000000001</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" ref="E23:E28" si="5">G23/D23*1.1</f>
+        <v>1.157475</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" ref="F23:F28" si="6">2.89-E23</f>
+        <v>1.7325250000000001</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" ref="G23:G28" si="7">4.209*B23</f>
+        <v>0.4209</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="4"/>
+        <v>11.574749999999998</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="5"/>
+        <v>2.8936875</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="6"/>
+        <v>-3.6874999999998437E-3</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="7"/>
+        <v>1.0522499999999999</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="4"/>
+        <v>23.149499999999996</v>
+      </c>
+      <c r="D25" s="16">
+        <v>4</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="6"/>
+        <v>2.3112625000000002</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="7"/>
+        <v>2.1044999999999998</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="4"/>
+        <v>46.298999999999992</v>
+      </c>
+      <c r="D26" s="16">
+        <v>4</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="5"/>
+        <v>1.157475</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="6"/>
+        <v>1.7325250000000001</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="7"/>
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="4"/>
+        <v>115.74749999999999</v>
+      </c>
+      <c r="D27" s="16">
+        <v>40</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="5"/>
+        <v>0.28936875000000001</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="6"/>
+        <v>2.6006312500000002</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="7"/>
+        <v>10.522499999999999</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="16">
+        <v>5</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="4"/>
+        <v>231.49499999999998</v>
+      </c>
+      <c r="D28" s="16">
+        <v>40</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="5"/>
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="6"/>
+        <v>2.3112625000000002</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="7"/>
+        <v>21.044999999999998</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="17">
+        <f>F41+D40</f>
+        <v>5.9956874999999998</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D40" s="17">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1.157475</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" ref="G40:G45" si="8">6-F40-D40</f>
+        <v>1.7405250000000003</v>
+      </c>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F41" s="17">
+        <v>2.8936875</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="8"/>
+        <v>2.3308125</v>
+      </c>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="E42" s="16">
+        <v>4</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="8"/>
+        <v>3.8702624999999999</v>
+      </c>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="16">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="E43" s="16">
+        <v>4</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1.157475</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="8"/>
+        <v>4.5323250000000002</v>
+      </c>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.77549999999999986</v>
+      </c>
+      <c r="E44" s="16">
+        <v>40</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.28936875000000001</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" si="8"/>
+        <v>4.9351312499999995</v>
+      </c>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="16">
+        <v>5</v>
+      </c>
+      <c r="C45" s="16">
+        <v>4</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="E45" s="16">
+        <v>40</v>
+      </c>
+      <c r="F45" s="17">
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="G45" s="17">
+        <f t="shared" si="8"/>
+        <v>5.2661625000000001</v>
+      </c>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Protocols/Drug_combination_concentrations.xlsx
+++ b/Protocols/Drug_combination_concentrations.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8070" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8070" windowHeight="3930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cr+Se" sheetId="2" r:id="rId1"/>
     <sheet name="Cr + AB" sheetId="3" r:id="rId2"/>
+    <sheet name="Cr + AB + Se" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="34">
   <si>
     <t>Crizotinib</t>
   </si>
@@ -116,13 +116,25 @@
   </si>
   <si>
     <t>Add 97.11uL SFM</t>
+  </si>
+  <si>
+    <t>96.90uL SFM</t>
+  </si>
+  <si>
+    <t>97.19uL SFM</t>
+  </si>
+  <si>
+    <t>97.11uL SFM</t>
+  </si>
+  <si>
+    <t>93.52uL SFM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +206,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +242,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -232,11 +272,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +360,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E28"/>
+    <sheetView topLeftCell="A13" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,4 +2213,1018 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51:J56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="31">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31">
+        <f>11*G9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="33">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="31">
+        <f t="shared" ref="C10:C15" si="0">11*G10</f>
+        <v>0.12408</v>
+      </c>
+      <c r="D10" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" ref="E10:E15" si="1">G10/D10*1.1</f>
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" ref="F10:F15" si="2">3.102-E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="33">
+        <f>0.1128*B10</f>
+        <v>1.128E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="31">
+        <f t="shared" si="0"/>
+        <v>0.24815999999999999</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="1"/>
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="2"/>
+        <v>2.4815999999999998</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" ref="G10:G15" si="3">0.1128*B11</f>
+        <v>2.256E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="31">
+        <f t="shared" si="0"/>
+        <v>0.37223999999999996</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="1"/>
+        <v>0.93059999999999987</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="2"/>
+        <v>2.1714000000000002</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="3"/>
+        <v>3.3839999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="31">
+        <f t="shared" si="0"/>
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="1"/>
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="2"/>
+        <v>2.9468999999999999</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="3"/>
+        <v>5.6399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="31">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31">
+        <f t="shared" si="0"/>
+        <v>1.2407999999999999</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="1"/>
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="2"/>
+        <v>2.7917999999999998</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="3"/>
+        <v>0.1128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="31">
+        <v>3</v>
+      </c>
+      <c r="C15" s="31">
+        <f t="shared" si="0"/>
+        <v>3.7223999999999999</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="1"/>
+        <v>0.93059999999999987</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="2"/>
+        <v>2.1714000000000002</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="3"/>
+        <v>0.33839999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="31">
+        <v>0</v>
+      </c>
+      <c r="C21" s="31">
+        <f>11*G21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="33">
+        <v>2.25</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" ref="G21:G27" si="4">4.091*B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="31">
+        <f t="shared" ref="C22:C27" si="5">11*G22</f>
+        <v>4.5000999999999998</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" ref="E22:E27" si="6">G22/D22*1.1</f>
+        <v>1.1250250000000002</v>
+      </c>
+      <c r="F22" s="33">
+        <f>2.25-E22</f>
+        <v>1.1249749999999998</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" si="4"/>
+        <v>0.40910000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="31">
+        <f t="shared" si="5"/>
+        <v>9.0001999999999995</v>
+      </c>
+      <c r="D23" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="33">
+        <f t="shared" si="6"/>
+        <v>2.2500500000000003</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" ref="F23:F27" si="7">2.25-E23</f>
+        <v>-5.000000000032756E-5</v>
+      </c>
+      <c r="G23" s="33">
+        <f t="shared" si="4"/>
+        <v>0.81820000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="31">
+        <f t="shared" si="5"/>
+        <v>13.500300000000001</v>
+      </c>
+      <c r="D24" s="31">
+        <v>4</v>
+      </c>
+      <c r="E24" s="33">
+        <f t="shared" si="6"/>
+        <v>0.33750750000000002</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="7"/>
+        <v>1.9124924999999999</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" si="4"/>
+        <v>1.2273000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="31">
+        <f t="shared" si="5"/>
+        <v>22.500500000000002</v>
+      </c>
+      <c r="D25" s="31">
+        <v>4</v>
+      </c>
+      <c r="E25" s="33">
+        <f t="shared" si="6"/>
+        <v>0.56251250000000008</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="7"/>
+        <v>1.6874875</v>
+      </c>
+      <c r="G25" s="33">
+        <f t="shared" si="4"/>
+        <v>2.0455000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="31">
+        <v>1</v>
+      </c>
+      <c r="C26" s="31">
+        <f t="shared" si="5"/>
+        <v>45.001000000000005</v>
+      </c>
+      <c r="D26" s="31">
+        <v>4</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="6"/>
+        <v>1.1250250000000002</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="7"/>
+        <v>1.1249749999999998</v>
+      </c>
+      <c r="G26" s="33">
+        <f t="shared" si="4"/>
+        <v>4.0910000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="31">
+        <v>3</v>
+      </c>
+      <c r="C27" s="31">
+        <f t="shared" si="5"/>
+        <v>135.00299999999999</v>
+      </c>
+      <c r="D27" s="31">
+        <v>40</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="6"/>
+        <v>0.33750750000000002</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="7"/>
+        <v>1.9124924999999999</v>
+      </c>
+      <c r="G27" s="33">
+        <f t="shared" si="4"/>
+        <v>12.273</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="31">
+        <v>0</v>
+      </c>
+      <c r="C39" s="31">
+        <f t="shared" ref="C39:C45" si="8">11*G39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="33">
+        <v>2.31</v>
+      </c>
+      <c r="G39" s="31">
+        <f>4.091*B39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="31">
+        <f t="shared" si="8"/>
+        <v>4.6299000000000001</v>
+      </c>
+      <c r="D40" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="E40" s="33">
+        <f t="shared" ref="E40:E45" si="9">G40/D40*1.1</f>
+        <v>1.157475</v>
+      </c>
+      <c r="F40" s="33">
+        <f>2.31-E40</f>
+        <v>1.152525</v>
+      </c>
+      <c r="G40" s="33">
+        <f t="shared" ref="G40:G45" si="10">4.209*B40</f>
+        <v>0.4209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="C41" s="31">
+        <f t="shared" si="8"/>
+        <v>9.2598000000000003</v>
+      </c>
+      <c r="D41" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="E41" s="33">
+        <f t="shared" si="9"/>
+        <v>2.3149500000000001</v>
+      </c>
+      <c r="F41" s="33">
+        <f t="shared" ref="F41:F45" si="11">2.31-E41</f>
+        <v>-4.9500000000000099E-3</v>
+      </c>
+      <c r="G41" s="33">
+        <f t="shared" si="10"/>
+        <v>0.84179999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C42" s="31">
+        <f t="shared" si="8"/>
+        <v>13.889699999999999</v>
+      </c>
+      <c r="D42" s="31">
+        <v>4</v>
+      </c>
+      <c r="E42" s="33">
+        <f t="shared" si="9"/>
+        <v>0.34724250000000001</v>
+      </c>
+      <c r="F42" s="33">
+        <f t="shared" si="11"/>
+        <v>1.9627574999999999</v>
+      </c>
+      <c r="G42" s="33">
+        <f t="shared" si="10"/>
+        <v>1.2626999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="31">
+        <f t="shared" si="8"/>
+        <v>23.149499999999996</v>
+      </c>
+      <c r="D43" s="31">
+        <v>4</v>
+      </c>
+      <c r="E43" s="33">
+        <f t="shared" si="9"/>
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="F43" s="33">
+        <f t="shared" si="11"/>
+        <v>1.7312625000000001</v>
+      </c>
+      <c r="G43" s="33">
+        <f t="shared" si="10"/>
+        <v>2.1044999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="31">
+        <v>1</v>
+      </c>
+      <c r="C44" s="31">
+        <f t="shared" si="8"/>
+        <v>46.298999999999992</v>
+      </c>
+      <c r="D44" s="31">
+        <v>4</v>
+      </c>
+      <c r="E44" s="33">
+        <f t="shared" si="9"/>
+        <v>1.157475</v>
+      </c>
+      <c r="F44" s="33">
+        <f t="shared" si="11"/>
+        <v>1.152525</v>
+      </c>
+      <c r="G44" s="33">
+        <f t="shared" si="10"/>
+        <v>4.2089999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="31">
+        <v>3</v>
+      </c>
+      <c r="C45" s="31">
+        <f t="shared" si="8"/>
+        <v>138.89699999999999</v>
+      </c>
+      <c r="D45" s="31">
+        <v>40</v>
+      </c>
+      <c r="E45" s="33">
+        <f t="shared" si="9"/>
+        <v>0.34724250000000001</v>
+      </c>
+      <c r="F45" s="33">
+        <f t="shared" si="11"/>
+        <v>1.9627574999999999</v>
+      </c>
+      <c r="G45" s="33">
+        <f t="shared" si="10"/>
+        <v>12.626999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="31">
+        <v>0</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="32">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D51" s="33">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="E51" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="33">
+        <v>1.1250250000000002</v>
+      </c>
+      <c r="G51" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H51" s="33">
+        <v>1.157475</v>
+      </c>
+      <c r="I51" s="34">
+        <f>5.38-H51-F51-D51</f>
+        <v>-4.4999999999997264E-3</v>
+      </c>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="C52" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="D52" s="33">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="E52" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="F52" s="33">
+        <v>2.2500500000000003</v>
+      </c>
+      <c r="G52" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H52" s="33">
+        <v>2.3149500000000001</v>
+      </c>
+      <c r="I52" s="34">
+        <f>5.38-H52-F52-D52</f>
+        <v>0.19459999999999955</v>
+      </c>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="D53" s="33">
+        <v>0.93059999999999987</v>
+      </c>
+      <c r="E53" s="31">
+        <v>4</v>
+      </c>
+      <c r="F53" s="33">
+        <v>0.33750750000000002</v>
+      </c>
+      <c r="G53" s="31">
+        <v>4</v>
+      </c>
+      <c r="H53" s="33">
+        <v>0.34724250000000001</v>
+      </c>
+      <c r="I53" s="34">
+        <f t="shared" ref="I52:I56" si="12">5.38-H53-F53-D53</f>
+        <v>3.7646499999999996</v>
+      </c>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="31">
+        <v>1</v>
+      </c>
+      <c r="C54" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D54" s="33">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="E54" s="31">
+        <v>4</v>
+      </c>
+      <c r="F54" s="33">
+        <v>0.56251250000000008</v>
+      </c>
+      <c r="G54" s="31">
+        <v>4</v>
+      </c>
+      <c r="H54" s="33">
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="I54" s="34">
+        <f t="shared" si="12"/>
+        <v>4.0836499999999996</v>
+      </c>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="C55" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D55" s="33">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="E55" s="31">
+        <v>4</v>
+      </c>
+      <c r="F55" s="33">
+        <v>1.1250250000000002</v>
+      </c>
+      <c r="G55" s="31">
+        <v>4</v>
+      </c>
+      <c r="H55" s="33">
+        <v>1.157475</v>
+      </c>
+      <c r="I55" s="34">
+        <f t="shared" si="12"/>
+        <v>2.7873000000000001</v>
+      </c>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="31">
+        <v>5</v>
+      </c>
+      <c r="C56" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D56" s="33">
+        <v>0.93059999999999987</v>
+      </c>
+      <c r="E56" s="31">
+        <v>40</v>
+      </c>
+      <c r="F56" s="33">
+        <v>0.33750750000000002</v>
+      </c>
+      <c r="G56" s="31">
+        <v>40</v>
+      </c>
+      <c r="H56" s="33">
+        <v>0.34724250000000001</v>
+      </c>
+      <c r="I56" s="34">
+        <f t="shared" si="12"/>
+        <v>3.7646499999999996</v>
+      </c>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="35"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Protocols/Drug_combination_concentrations.xlsx
+++ b/Protocols/Drug_combination_concentrations.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8070" windowHeight="3930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8070" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cr+Se" sheetId="2" r:id="rId1"/>
-    <sheet name="Cr + AB" sheetId="3" r:id="rId2"/>
-    <sheet name="Cr + AB + Se" sheetId="4" r:id="rId3"/>
+    <sheet name="Cr+Se new" sheetId="5" r:id="rId2"/>
+    <sheet name="Cr + AB" sheetId="3" r:id="rId3"/>
+    <sheet name="Cr + AB + Se" sheetId="4" r:id="rId4"/>
+    <sheet name="AB + Se" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="44">
   <si>
     <t>Crizotinib</t>
   </si>
@@ -129,12 +131,42 @@
   <si>
     <t>93.52uL SFM</t>
   </si>
+  <si>
+    <t>IC50 = 1.996e-006M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 1.996uM</t>
+  </si>
+  <si>
+    <t>ABT + selumetinib combination</t>
+  </si>
+  <si>
+    <t>Add 97.26uL SFM</t>
+  </si>
+  <si>
+    <t>S Dilution</t>
+  </si>
+  <si>
+    <t>S Volume</t>
+  </si>
+  <si>
+    <t>A Dilution</t>
+  </si>
+  <si>
+    <t>A Volume</t>
+  </si>
+  <si>
+    <t>Add 95.73uL SFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +185,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -224,6 +257,31 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,6 +469,29 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:F45"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,210 +1049,218 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="45">
+        <v>0</v>
+      </c>
+      <c r="C22" s="45">
         <f>11*G22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="46">
         <v>2.8125624999999999</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="45">
         <f t="shared" ref="G22:G28" si="4">4.091*B22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
+      <c r="B23" s="45">
         <v>0.1</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="45">
         <f t="shared" ref="C23:C28" si="5">11*G23</f>
         <v>4.5000999999999998</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="45">
         <v>0.4</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="46">
         <f t="shared" ref="E23:E28" si="6">G23/D23*1.1</f>
         <v>1.1250250000000002</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="46">
         <f t="shared" ref="F23:F28" si="7">2.8125625-E23</f>
         <v>1.6875374999999997</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="46">
         <f t="shared" si="4"/>
         <v>0.40910000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
+      <c r="B24" s="45">
         <v>0.25</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="45">
         <f t="shared" si="5"/>
         <v>11.250250000000001</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="45">
         <v>0.4</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="46">
         <f t="shared" si="6"/>
         <v>2.8125624999999999</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="46">
         <f t="shared" si="4"/>
         <v>1.02275</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
+      <c r="B25" s="45">
         <v>0.5</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="45">
         <f t="shared" si="5"/>
         <v>22.500500000000002</v>
       </c>
-      <c r="D25" s="16">
-        <v>4</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="45">
+        <v>4</v>
+      </c>
+      <c r="E25" s="46">
         <f t="shared" si="6"/>
         <v>0.56251250000000008</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="46">
         <f t="shared" si="7"/>
         <v>2.2500499999999999</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="46">
         <f t="shared" si="4"/>
         <v>2.0455000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+      <c r="B26" s="45">
         <v>1</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="45">
         <f t="shared" si="5"/>
         <v>45.001000000000005</v>
       </c>
-      <c r="D26" s="16">
-        <v>4</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="D26" s="45">
+        <v>4</v>
+      </c>
+      <c r="E26" s="46">
         <f t="shared" si="6"/>
         <v>1.1250250000000002</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="46">
         <f t="shared" si="7"/>
         <v>1.6875374999999997</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="46">
         <f t="shared" si="4"/>
         <v>4.0910000000000002</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+      <c r="B27" s="45">
         <v>2.5</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="45">
         <f t="shared" si="5"/>
         <v>112.50250000000001</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="45">
         <v>40</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="46">
         <f t="shared" si="6"/>
         <v>0.28125625000000004</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="46">
         <f t="shared" si="7"/>
         <v>2.5313062499999996</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="46">
         <f t="shared" si="4"/>
         <v>10.227500000000001</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+      <c r="B28" s="45">
         <v>5</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="45">
         <f t="shared" si="5"/>
         <v>225.00500000000002</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="45">
         <v>40</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="46">
         <f t="shared" si="6"/>
         <v>0.56251250000000008</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="46">
         <f t="shared" si="7"/>
         <v>2.2500499999999999</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="46">
         <f t="shared" si="4"/>
         <v>20.455000000000002</v>
       </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
@@ -1361,10 +1450,809 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <f>11*G10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" ref="C11:C16" si="0">11*G11</f>
+        <v>0.12408</v>
+      </c>
+      <c r="D11" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" ref="E11:E16" si="1">G11/D11*1.1</f>
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" ref="F11:F16" si="2">3.102-E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" ref="G11:G16" si="3">0.1128*B11</f>
+        <v>1.128E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="1"/>
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="2"/>
+        <v>2.3264999999999998</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="3"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="17">
+        <f>G13/D13*1.1</f>
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="2"/>
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="3"/>
+        <v>5.6399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2407999999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="2"/>
+        <v>2.7917999999999998</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="3"/>
+        <v>0.1128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="0"/>
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="1"/>
+        <v>0.77549999999999986</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="2"/>
+        <v>2.3265000000000002</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="3"/>
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="0"/>
+        <v>6.2039999999999997</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="2"/>
+        <v>2.9468999999999999</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="3"/>
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <f>11*G22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2.7445000000000004</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" ref="G22" si="4">4.091*B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="16">
+        <f>11*G23</f>
+        <v>2.1955999999999998</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" ref="E23:E28" si="5">G23/D23*1.1</f>
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="F23" s="17">
+        <f>2.7445-E23</f>
+        <v>2.1955999999999998</v>
+      </c>
+      <c r="G23" s="17">
+        <f>1.996*B23</f>
+        <v>0.1996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" ref="C24:C28" si="6">11*G24</f>
+        <v>5.4889999999999999</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="17">
+        <f>G24/D24*1.1</f>
+        <v>1.37225</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" ref="F24:F28" si="7">2.7445-E24</f>
+        <v>1.37225</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" ref="G24:G28" si="8">1.996*B24</f>
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="6"/>
+        <v>10.978</v>
+      </c>
+      <c r="D25" s="16">
+        <v>4</v>
+      </c>
+      <c r="E25" s="17">
+        <f>G25/D25*1.1</f>
+        <v>0.27445000000000003</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="7"/>
+        <v>2.4700500000000001</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="8"/>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="6"/>
+        <v>21.956</v>
+      </c>
+      <c r="D26" s="16">
+        <v>4</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="5"/>
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="7"/>
+        <v>2.1955999999999998</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="8"/>
+        <v>1.996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="6"/>
+        <v>54.89</v>
+      </c>
+      <c r="D27" s="16">
+        <v>4</v>
+      </c>
+      <c r="E27" s="17">
+        <f>G27/D27*1.1</f>
+        <v>1.3722500000000002</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.3722499999999997</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="8"/>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="16">
+        <v>5</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="6"/>
+        <v>109.78</v>
+      </c>
+      <c r="D28" s="16">
+        <v>4</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="5"/>
+        <v>2.7445000000000004</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="8"/>
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="17">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D40" s="17">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F40" s="17">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="G40" s="17">
+        <f>3.65-F40-D40</f>
+        <v>-9.0000000000012292E-4</v>
+      </c>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1.37225</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" ref="G41:G45" si="9">3.65-F41-D41</f>
+        <v>1.5022500000000001</v>
+      </c>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="E42" s="16">
+        <v>4</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0.27445000000000003</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="9"/>
+        <v>1.8245500000000001</v>
+      </c>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="16">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="E43" s="16">
+        <v>4</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="9"/>
+        <v>2.7908999999999997</v>
+      </c>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.77549999999999986</v>
+      </c>
+      <c r="E44" s="16">
+        <v>4</v>
+      </c>
+      <c r="F44" s="17">
+        <v>1.3722500000000002</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" si="9"/>
+        <v>1.5022499999999999</v>
+      </c>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="16">
+        <v>5</v>
+      </c>
+      <c r="C45" s="16">
+        <v>4</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="E45" s="16">
+        <v>4</v>
+      </c>
+      <c r="F45" s="17">
+        <v>2.7445000000000004</v>
+      </c>
+      <c r="G45" s="17">
+        <f t="shared" si="9"/>
+        <v>0.75039999999999951</v>
+      </c>
+      <c r="I45" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,17 +3103,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J58"/>
+  <dimension ref="A2:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51:J56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="B36:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>0</v>
@@ -2241,7 +3129,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
         <v>5</v>
@@ -2257,7 +3145,7 @@
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="37" t="s">
         <v>6</v>
@@ -2273,7 +3161,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
@@ -2285,15 +3173,33 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
@@ -2312,8 +3218,30 @@
       <c r="G8" s="27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8" s="31">
+        <v>1</v>
+      </c>
+      <c r="L8" s="31">
+        <f>11*P8</f>
+        <v>1.2407999999999999</v>
+      </c>
+      <c r="M8" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="33">
+        <f>P8/M8*1.1</f>
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="O8" s="33">
+        <f t="shared" ref="O8" si="0">3.102-N8</f>
+        <v>2.7917999999999998</v>
+      </c>
+      <c r="P8" s="33">
+        <f>0.1128*K8</f>
+        <v>0.1128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="31">
         <v>0</v>
       </c>
@@ -2334,23 +3262,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="31">
         <v>0.1</v>
       </c>
       <c r="C10" s="31">
-        <f t="shared" ref="C10:C15" si="0">11*G10</f>
+        <f t="shared" ref="C10:C15" si="1">11*G10</f>
         <v>0.12408</v>
       </c>
       <c r="D10" s="31">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E10" s="33">
-        <f t="shared" ref="E10:E15" si="1">G10/D10*1.1</f>
+        <f t="shared" ref="E10:E15" si="2">G10/D10*1.1</f>
         <v>3.1019999999999999</v>
       </c>
       <c r="F10" s="33">
-        <f t="shared" ref="F10:F15" si="2">3.102-E10</f>
+        <f t="shared" ref="F10:F15" si="3">3.102-E10</f>
         <v>0</v>
       </c>
       <c r="G10" s="33">
@@ -2358,127 +3286,127 @@
         <v>1.128E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>0.2</v>
       </c>
       <c r="C11" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24815999999999999</v>
       </c>
       <c r="D11" s="31">
         <v>0.04</v>
       </c>
       <c r="E11" s="33">
+        <f t="shared" si="2"/>
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="3"/>
+        <v>2.4815999999999998</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" ref="G11:G15" si="4">0.1128*B11</f>
+        <v>2.256E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="31">
+        <f t="shared" si="1"/>
+        <v>0.37223999999999996</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="2"/>
+        <v>0.93059999999999987</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="3"/>
+        <v>2.1714000000000002</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="4"/>
+        <v>3.3839999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="31">
         <f t="shared" si="1"/>
         <v>0.62039999999999995</v>
       </c>
-      <c r="F11" s="33">
-        <f t="shared" si="2"/>
-        <v>2.4815999999999998</v>
-      </c>
-      <c r="G11" s="33">
-        <f t="shared" ref="G10:G15" si="3">0.1128*B11</f>
-        <v>2.256E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="31">
-        <v>0.3</v>
-      </c>
-      <c r="C12" s="31">
-        <f t="shared" si="0"/>
-        <v>0.37223999999999996</v>
-      </c>
-      <c r="D12" s="31">
-        <v>0.04</v>
-      </c>
-      <c r="E12" s="33">
-        <f t="shared" si="1"/>
-        <v>0.93059999999999987</v>
-      </c>
-      <c r="F12" s="33">
-        <f t="shared" si="2"/>
-        <v>2.1714000000000002</v>
-      </c>
-      <c r="G12" s="33">
-        <f t="shared" si="3"/>
-        <v>3.3839999999999995E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="31">
-        <f t="shared" si="0"/>
-        <v>0.62039999999999995</v>
-      </c>
       <c r="D13" s="31">
         <v>0.4</v>
       </c>
       <c r="E13" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15509999999999999</v>
       </c>
       <c r="F13" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9468999999999999</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6399999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="31">
         <v>1</v>
       </c>
       <c r="C14" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2407999999999999</v>
       </c>
       <c r="D14" s="31">
         <v>0.4</v>
       </c>
       <c r="E14" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31019999999999998</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7917999999999998</v>
       </c>
       <c r="G14" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1128</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="31">
         <v>3</v>
       </c>
       <c r="C15" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7223999999999999</v>
       </c>
       <c r="D15" s="31">
         <v>0.4</v>
       </c>
       <c r="E15" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93059999999999987</v>
       </c>
       <c r="F15" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1714000000000002</v>
       </c>
       <c r="G15" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33839999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2552,7 +3480,7 @@
         <v>2.25</v>
       </c>
       <c r="G21" s="31">
-        <f t="shared" ref="G21:G27" si="4">4.091*B21</f>
+        <f t="shared" ref="G21:G27" si="5">4.091*B21</f>
         <v>0</v>
       </c>
     </row>
@@ -2561,14 +3489,14 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="31">
-        <f t="shared" ref="C22:C27" si="5">11*G22</f>
+        <f t="shared" ref="C22:C27" si="6">11*G22</f>
         <v>4.5000999999999998</v>
       </c>
       <c r="D22" s="31">
         <v>0.4</v>
       </c>
       <c r="E22" s="33">
-        <f t="shared" ref="E22:E27" si="6">G22/D22*1.1</f>
+        <f t="shared" ref="E22:E27" si="7">G22/D22*1.1</f>
         <v>1.1250250000000002</v>
       </c>
       <c r="F22" s="33">
@@ -2576,7 +3504,7 @@
         <v>1.1249749999999998</v>
       </c>
       <c r="G22" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40910000000000002</v>
       </c>
     </row>
@@ -2585,22 +3513,22 @@
         <v>0.2</v>
       </c>
       <c r="C23" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0001999999999995</v>
       </c>
       <c r="D23" s="31">
         <v>0.4</v>
       </c>
       <c r="E23" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2500500000000003</v>
       </c>
       <c r="F23" s="33">
-        <f t="shared" ref="F23:F27" si="7">2.25-E23</f>
+        <f t="shared" ref="F23:F27" si="8">2.25-E23</f>
         <v>-5.000000000032756E-5</v>
       </c>
       <c r="G23" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81820000000000004</v>
       </c>
     </row>
@@ -2609,22 +3537,22 @@
         <v>0.3</v>
       </c>
       <c r="C24" s="31">
+        <f t="shared" si="6"/>
+        <v>13.500300000000001</v>
+      </c>
+      <c r="D24" s="31">
+        <v>4</v>
+      </c>
+      <c r="E24" s="33">
+        <f t="shared" si="7"/>
+        <v>0.33750750000000002</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="8"/>
+        <v>1.9124924999999999</v>
+      </c>
+      <c r="G24" s="33">
         <f t="shared" si="5"/>
-        <v>13.500300000000001</v>
-      </c>
-      <c r="D24" s="31">
-        <v>4</v>
-      </c>
-      <c r="E24" s="33">
-        <f t="shared" si="6"/>
-        <v>0.33750750000000002</v>
-      </c>
-      <c r="F24" s="33">
-        <f t="shared" si="7"/>
-        <v>1.9124924999999999</v>
-      </c>
-      <c r="G24" s="33">
-        <f t="shared" si="4"/>
         <v>1.2273000000000001</v>
       </c>
     </row>
@@ -2633,22 +3561,22 @@
         <v>0.5</v>
       </c>
       <c r="C25" s="31">
+        <f t="shared" si="6"/>
+        <v>22.500500000000002</v>
+      </c>
+      <c r="D25" s="31">
+        <v>4</v>
+      </c>
+      <c r="E25" s="33">
+        <f t="shared" si="7"/>
+        <v>0.56251250000000008</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="8"/>
+        <v>1.6874875</v>
+      </c>
+      <c r="G25" s="33">
         <f t="shared" si="5"/>
-        <v>22.500500000000002</v>
-      </c>
-      <c r="D25" s="31">
-        <v>4</v>
-      </c>
-      <c r="E25" s="33">
-        <f t="shared" si="6"/>
-        <v>0.56251250000000008</v>
-      </c>
-      <c r="F25" s="33">
-        <f t="shared" si="7"/>
-        <v>1.6874875</v>
-      </c>
-      <c r="G25" s="33">
-        <f t="shared" si="4"/>
         <v>2.0455000000000001</v>
       </c>
     </row>
@@ -2657,22 +3585,22 @@
         <v>1</v>
       </c>
       <c r="C26" s="31">
+        <f t="shared" si="6"/>
+        <v>45.001000000000005</v>
+      </c>
+      <c r="D26" s="31">
+        <v>4</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="7"/>
+        <v>1.1250250000000002</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="8"/>
+        <v>1.1249749999999998</v>
+      </c>
+      <c r="G26" s="33">
         <f t="shared" si="5"/>
-        <v>45.001000000000005</v>
-      </c>
-      <c r="D26" s="31">
-        <v>4</v>
-      </c>
-      <c r="E26" s="33">
-        <f t="shared" si="6"/>
-        <v>1.1250250000000002</v>
-      </c>
-      <c r="F26" s="33">
-        <f t="shared" si="7"/>
-        <v>1.1249749999999998</v>
-      </c>
-      <c r="G26" s="33">
-        <f t="shared" si="4"/>
         <v>4.0910000000000002</v>
       </c>
     </row>
@@ -2681,22 +3609,22 @@
         <v>3</v>
       </c>
       <c r="C27" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>135.00299999999999</v>
       </c>
       <c r="D27" s="31">
         <v>40</v>
       </c>
       <c r="E27" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.33750750000000002</v>
       </c>
       <c r="F27" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9124924999999999</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.273</v>
       </c>
     </row>
@@ -2801,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="31">
-        <f t="shared" ref="C39:C45" si="8">11*G39</f>
+        <f t="shared" ref="C39:C45" si="9">11*G39</f>
         <v>0</v>
       </c>
       <c r="D39" s="31" t="s">
@@ -2823,14 +3751,14 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6299000000000001</v>
       </c>
       <c r="D40" s="31">
         <v>0.4</v>
       </c>
       <c r="E40" s="33">
-        <f t="shared" ref="E40:E45" si="9">G40/D40*1.1</f>
+        <f t="shared" ref="E40:E45" si="10">G40/D40*1.1</f>
         <v>1.157475</v>
       </c>
       <c r="F40" s="33">
@@ -2838,7 +3766,7 @@
         <v>1.152525</v>
       </c>
       <c r="G40" s="33">
-        <f t="shared" ref="G40:G45" si="10">4.209*B40</f>
+        <f t="shared" ref="G40:G45" si="11">4.209*B40</f>
         <v>0.4209</v>
       </c>
     </row>
@@ -2847,22 +3775,22 @@
         <v>0.2</v>
       </c>
       <c r="C41" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.2598000000000003</v>
       </c>
       <c r="D41" s="31">
         <v>0.4</v>
       </c>
       <c r="E41" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3149500000000001</v>
       </c>
       <c r="F41" s="33">
-        <f t="shared" ref="F41:F45" si="11">2.31-E41</f>
+        <f t="shared" ref="F41:F45" si="12">2.31-E41</f>
         <v>-4.9500000000000099E-3</v>
       </c>
       <c r="G41" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.84179999999999999</v>
       </c>
     </row>
@@ -2871,22 +3799,22 @@
         <v>0.3</v>
       </c>
       <c r="C42" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.889699999999999</v>
       </c>
       <c r="D42" s="31">
         <v>4</v>
       </c>
       <c r="E42" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.34724250000000001</v>
       </c>
       <c r="F42" s="33">
+        <f t="shared" si="12"/>
+        <v>1.9627574999999999</v>
+      </c>
+      <c r="G42" s="33">
         <f t="shared" si="11"/>
-        <v>1.9627574999999999</v>
-      </c>
-      <c r="G42" s="33">
-        <f t="shared" si="10"/>
         <v>1.2626999999999999</v>
       </c>
     </row>
@@ -2895,22 +3823,22 @@
         <v>0.5</v>
       </c>
       <c r="C43" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.149499999999996</v>
       </c>
       <c r="D43" s="31">
         <v>4</v>
       </c>
       <c r="E43" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.57873750000000002</v>
       </c>
       <c r="F43" s="33">
+        <f t="shared" si="12"/>
+        <v>1.7312625000000001</v>
+      </c>
+      <c r="G43" s="33">
         <f t="shared" si="11"/>
-        <v>1.7312625000000001</v>
-      </c>
-      <c r="G43" s="33">
-        <f t="shared" si="10"/>
         <v>2.1044999999999998</v>
       </c>
     </row>
@@ -2919,22 +3847,22 @@
         <v>1</v>
       </c>
       <c r="C44" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46.298999999999992</v>
       </c>
       <c r="D44" s="31">
         <v>4</v>
       </c>
       <c r="E44" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.157475</v>
       </c>
       <c r="F44" s="33">
+        <f t="shared" si="12"/>
+        <v>1.152525</v>
+      </c>
+      <c r="G44" s="33">
         <f t="shared" si="11"/>
-        <v>1.152525</v>
-      </c>
-      <c r="G44" s="33">
-        <f t="shared" si="10"/>
         <v>4.2089999999999996</v>
       </c>
     </row>
@@ -2943,22 +3871,22 @@
         <v>3</v>
       </c>
       <c r="C45" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>138.89699999999999</v>
       </c>
       <c r="D45" s="31">
         <v>40</v>
       </c>
       <c r="E45" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.34724250000000001</v>
       </c>
       <c r="F45" s="33">
+        <f t="shared" si="12"/>
+        <v>1.9627574999999999</v>
+      </c>
+      <c r="G45" s="33">
         <f t="shared" si="11"/>
-        <v>1.9627574999999999</v>
-      </c>
-      <c r="G45" s="33">
-        <f t="shared" si="10"/>
         <v>12.626999999999999</v>
       </c>
     </row>
@@ -3122,7 +4050,7 @@
         <v>0.34724250000000001</v>
       </c>
       <c r="I53" s="34">
-        <f t="shared" ref="I52:I56" si="12">5.38-H53-F53-D53</f>
+        <f t="shared" ref="I53:I56" si="13">5.38-H53-F53-D53</f>
         <v>3.7646499999999996</v>
       </c>
       <c r="J53" s="23"/>
@@ -3151,7 +4079,7 @@
         <v>0.57873750000000002</v>
       </c>
       <c r="I54" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.0836499999999996</v>
       </c>
       <c r="J54" s="23"/>
@@ -3180,7 +4108,7 @@
         <v>1.157475</v>
       </c>
       <c r="I55" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.7873000000000001</v>
       </c>
       <c r="J55" s="23"/>
@@ -3209,7 +4137,7 @@
         <v>0.34724250000000001</v>
       </c>
       <c r="I56" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.7646499999999996</v>
       </c>
       <c r="J56" s="23"/>
@@ -3222,6 +4150,655 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <f>11*G11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2.7445000000000004</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" ref="G11" si="0">4.091*B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="16">
+        <f>11*G12</f>
+        <v>2.1955999999999998</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" ref="E12:E17" si="1">G12/D12*1.1</f>
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="F12" s="17">
+        <f>2.7445-E12</f>
+        <v>2.1955999999999998</v>
+      </c>
+      <c r="G12" s="17">
+        <f>1.996*B12</f>
+        <v>0.1996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" ref="C13:C17" si="2">11*G13</f>
+        <v>5.4889999999999999</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="17">
+        <f>G13/D13*1.1</f>
+        <v>1.37225</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" ref="F13:F17" si="3">2.7445-E13</f>
+        <v>1.37225</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" ref="G13:G17" si="4">1.996*B13</f>
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="2"/>
+        <v>10.978</v>
+      </c>
+      <c r="D14" s="16">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17">
+        <f>G14/D14*1.1</f>
+        <v>0.27445000000000003</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="3"/>
+        <v>2.4700500000000001</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="4"/>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="2"/>
+        <v>21.956</v>
+      </c>
+      <c r="D15" s="16">
+        <v>4</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="1"/>
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="3"/>
+        <v>2.1955999999999998</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="4"/>
+        <v>1.996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="2"/>
+        <v>54.89</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="17">
+        <f>G16/D16*1.1</f>
+        <v>1.3722500000000002</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="3"/>
+        <v>1.3722499999999997</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="4"/>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <v>5</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="2"/>
+        <v>109.78</v>
+      </c>
+      <c r="D17" s="16">
+        <v>4</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="1"/>
+        <v>2.7445000000000004</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="4"/>
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" ref="C24:C30" si="5">11*G24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="17">
+        <v>2.89</v>
+      </c>
+      <c r="G24" s="16">
+        <f>4.091*B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="5"/>
+        <v>4.6299000000000001</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" ref="E25:E30" si="6">G25/D25*1.1</f>
+        <v>1.157475</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" ref="F25:F30" si="7">2.89-E25</f>
+        <v>1.7325250000000001</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" ref="G25:G30" si="8">4.209*B25</f>
+        <v>0.4209</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="5"/>
+        <v>11.574749999999998</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="6"/>
+        <v>2.8936875</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="7"/>
+        <v>-3.6874999999998437E-3</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0522499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="5"/>
+        <v>23.149499999999996</v>
+      </c>
+      <c r="D27" s="16">
+        <v>4</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="6"/>
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="7"/>
+        <v>2.3112625000000002</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="8"/>
+        <v>2.1044999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="16">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="5"/>
+        <v>46.298999999999992</v>
+      </c>
+      <c r="D28" s="16">
+        <v>4</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="6"/>
+        <v>1.157475</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="7"/>
+        <v>1.7325250000000001</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="8"/>
+        <v>4.2089999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="5"/>
+        <v>115.74749999999999</v>
+      </c>
+      <c r="D29" s="16">
+        <v>40</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="6"/>
+        <v>0.28936875000000001</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="7"/>
+        <v>2.6006312500000002</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="8"/>
+        <v>10.522499999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="16">
+        <v>5</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="5"/>
+        <v>231.49499999999998</v>
+      </c>
+      <c r="D30" s="16">
+        <v>40</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="6"/>
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="7"/>
+        <v>2.3112625000000002</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="8"/>
+        <v>21.044999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="31">
+        <v>0</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="32">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="D38" s="34">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="34">
+        <v>1.157475</v>
+      </c>
+      <c r="G38" s="34">
+        <f>4.27-F38-D38</f>
+        <v>2.5636249999999996</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="C39" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="D39" s="34">
+        <v>1.37225</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="F39" s="34">
+        <v>2.8936875</v>
+      </c>
+      <c r="G39" s="34">
+        <f t="shared" ref="G39:G43" si="9">4.27-F39-D39</f>
+        <v>4.0624999999996358E-3</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="32">
+        <v>4</v>
+      </c>
+      <c r="D40" s="34">
+        <v>0.27445000000000003</v>
+      </c>
+      <c r="E40" s="32">
+        <v>4</v>
+      </c>
+      <c r="F40" s="34">
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="G40" s="34">
+        <f t="shared" si="9"/>
+        <v>3.4168124999999998</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="31">
+        <v>1</v>
+      </c>
+      <c r="C41" s="32">
+        <v>4</v>
+      </c>
+      <c r="D41" s="34">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="E41" s="32">
+        <v>4</v>
+      </c>
+      <c r="F41" s="34">
+        <v>1.157475</v>
+      </c>
+      <c r="G41" s="34">
+        <f t="shared" si="9"/>
+        <v>2.5636249999999996</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="C42" s="32">
+        <v>4</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1.3722500000000002</v>
+      </c>
+      <c r="E42" s="32">
+        <v>40</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0.28936875000000001</v>
+      </c>
+      <c r="G42" s="34">
+        <f t="shared" si="9"/>
+        <v>2.6083812499999994</v>
+      </c>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="31">
+        <v>5</v>
+      </c>
+      <c r="C43" s="32">
+        <v>4</v>
+      </c>
+      <c r="D43" s="34">
+        <v>2.7445000000000004</v>
+      </c>
+      <c r="E43" s="32">
+        <v>40</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="G43" s="34">
+        <f t="shared" si="9"/>
+        <v>0.94676249999999929</v>
+      </c>
+      <c r="H43" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Protocols/Drug_combination_concentrations.xlsx
+++ b/Protocols/Drug_combination_concentrations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8070" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8070" windowHeight="3930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cr+Se" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Cr + AB" sheetId="3" r:id="rId3"/>
     <sheet name="Cr + AB + Se" sheetId="4" r:id="rId4"/>
     <sheet name="AB + Se" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="44">
   <si>
     <t>Crizotinib</t>
   </si>
@@ -1452,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="B36:G45"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J63" sqref="A47:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,7 +4163,7 @@
   <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A20" sqref="A20:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,4 +4805,1033 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <f>11*G10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" ref="C11:C16" si="0">11*G11</f>
+        <v>0.12408</v>
+      </c>
+      <c r="D11" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" ref="E11:E16" si="1">G11/D11*1.1</f>
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" ref="F11:F16" si="2">3.102-E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" ref="G11:G16" si="3">0.1128*B11</f>
+        <v>1.128E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="1"/>
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="2"/>
+        <v>2.3264999999999998</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="3"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="17">
+        <f>G13/D13*1.1</f>
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="2"/>
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="3"/>
+        <v>5.6399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2407999999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="2"/>
+        <v>2.7917999999999998</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="3"/>
+        <v>0.1128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="0"/>
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="1"/>
+        <v>0.77549999999999986</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="2"/>
+        <v>2.3265000000000002</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="3"/>
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="0"/>
+        <v>6.2039999999999997</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="2"/>
+        <v>2.9468999999999999</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="3"/>
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <f>11*G22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2.7445000000000004</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" ref="G22" si="4">4.091*B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="16">
+        <f>11*G23</f>
+        <v>2.1955999999999998</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" ref="E23:E28" si="5">G23/D23*1.1</f>
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="F23" s="17">
+        <f>2.7445-E23</f>
+        <v>2.1955999999999998</v>
+      </c>
+      <c r="G23" s="17">
+        <f>1.996*B23</f>
+        <v>0.1996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" ref="C24:C28" si="6">11*G24</f>
+        <v>5.4889999999999999</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="17">
+        <f>G24/D24*1.1</f>
+        <v>1.37225</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" ref="F24:F28" si="7">2.7445-E24</f>
+        <v>1.37225</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" ref="G24:G28" si="8">1.996*B24</f>
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="6"/>
+        <v>10.978</v>
+      </c>
+      <c r="D25" s="16">
+        <v>4</v>
+      </c>
+      <c r="E25" s="17">
+        <f>G25/D25*1.1</f>
+        <v>0.27445000000000003</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="7"/>
+        <v>2.4700500000000001</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="8"/>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="6"/>
+        <v>21.956</v>
+      </c>
+      <c r="D26" s="16">
+        <v>4</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="5"/>
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="7"/>
+        <v>2.1955999999999998</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="8"/>
+        <v>1.996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="6"/>
+        <v>54.89</v>
+      </c>
+      <c r="D27" s="16">
+        <v>4</v>
+      </c>
+      <c r="E27" s="17">
+        <f>G27/D27*1.1</f>
+        <v>1.3722500000000002</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.3722499999999997</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="8"/>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="16">
+        <v>5</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="6"/>
+        <v>109.78</v>
+      </c>
+      <c r="D28" s="16">
+        <v>4</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="5"/>
+        <v>2.7445000000000004</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="8"/>
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="16">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" ref="C37:C43" si="9">11*G37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="17">
+        <v>2.89</v>
+      </c>
+      <c r="G37" s="16">
+        <f>4.091*B37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="16">
+        <f t="shared" si="9"/>
+        <v>4.6299000000000001</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" ref="E38:E43" si="10">G38/D38*1.1</f>
+        <v>1.157475</v>
+      </c>
+      <c r="F38" s="17">
+        <f t="shared" ref="F38:F43" si="11">2.89-E38</f>
+        <v>1.7325250000000001</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" ref="G38:G43" si="12">4.209*B38</f>
+        <v>0.4209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="9"/>
+        <v>11.574749999999998</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="10"/>
+        <v>2.8936875</v>
+      </c>
+      <c r="F39" s="17">
+        <f t="shared" si="11"/>
+        <v>-3.6874999999998437E-3</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="12"/>
+        <v>1.0522499999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="16">
+        <f t="shared" si="9"/>
+        <v>23.149499999999996</v>
+      </c>
+      <c r="D40" s="16">
+        <v>4</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="10"/>
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="F40" s="17">
+        <f t="shared" si="11"/>
+        <v>2.3112625000000002</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" si="12"/>
+        <v>2.1044999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="16">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" si="9"/>
+        <v>46.298999999999992</v>
+      </c>
+      <c r="D41" s="16">
+        <v>4</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="10"/>
+        <v>1.157475</v>
+      </c>
+      <c r="F41" s="17">
+        <f t="shared" si="11"/>
+        <v>1.7325250000000001</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="12"/>
+        <v>4.2089999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C42" s="16">
+        <f t="shared" si="9"/>
+        <v>115.74749999999999</v>
+      </c>
+      <c r="D42" s="16">
+        <v>40</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" si="10"/>
+        <v>0.28936875000000001</v>
+      </c>
+      <c r="F42" s="17">
+        <f t="shared" si="11"/>
+        <v>2.6006312500000002</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="12"/>
+        <v>10.522499999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="16">
+        <v>5</v>
+      </c>
+      <c r="C43" s="16">
+        <f t="shared" si="9"/>
+        <v>231.49499999999998</v>
+      </c>
+      <c r="D43" s="16">
+        <v>40</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" si="10"/>
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="F43" s="17">
+        <f t="shared" si="11"/>
+        <v>2.3112625000000002</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="12"/>
+        <v>21.044999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="31">
+        <v>0</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="32">
+        <v>4.8079999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D51" s="33">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="E51" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="33">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="G51" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H51" s="33">
+        <v>1.157475</v>
+      </c>
+      <c r="I51" s="34">
+        <f>4.808-H51-F51-D51</f>
+        <v>-3.7500000000001421E-4</v>
+      </c>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="C52" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="D52" s="33">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="E52" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="F52" s="33">
+        <v>1.37225</v>
+      </c>
+      <c r="G52" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H52" s="33">
+        <v>2.3149500000000001</v>
+      </c>
+      <c r="I52" s="34">
+        <f t="shared" ref="I52:I56" si="13">4.808-H52-F52-D52</f>
+        <v>0.50039999999999984</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="D53" s="33">
+        <v>0.93059999999999987</v>
+      </c>
+      <c r="E53" s="31">
+        <v>4</v>
+      </c>
+      <c r="F53" s="33">
+        <v>0.27445000000000003</v>
+      </c>
+      <c r="G53" s="31">
+        <v>4</v>
+      </c>
+      <c r="H53" s="33">
+        <v>0.34724250000000001</v>
+      </c>
+      <c r="I53" s="34">
+        <f t="shared" si="13"/>
+        <v>3.2557074999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="31">
+        <v>1</v>
+      </c>
+      <c r="C54" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D54" s="33">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="E54" s="31">
+        <v>4</v>
+      </c>
+      <c r="F54" s="33">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="G54" s="31">
+        <v>4</v>
+      </c>
+      <c r="H54" s="33">
+        <v>0.57873750000000002</v>
+      </c>
+      <c r="I54" s="34">
+        <f t="shared" si="13"/>
+        <v>3.5252624999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="C55" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D55" s="33">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="E55" s="31">
+        <v>4</v>
+      </c>
+      <c r="F55" s="33">
+        <v>1.3722500000000002</v>
+      </c>
+      <c r="G55" s="31">
+        <v>4</v>
+      </c>
+      <c r="H55" s="33">
+        <v>1.157475</v>
+      </c>
+      <c r="I55" s="34">
+        <f t="shared" si="13"/>
+        <v>1.9680749999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="31">
+        <v>5</v>
+      </c>
+      <c r="C56" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D56" s="33">
+        <v>0.93059999999999987</v>
+      </c>
+      <c r="E56" s="31">
+        <v>4</v>
+      </c>
+      <c r="F56" s="33">
+        <v>2.7445000000000004</v>
+      </c>
+      <c r="G56" s="31">
+        <v>40</v>
+      </c>
+      <c r="H56" s="33">
+        <v>0.34724250000000001</v>
+      </c>
+      <c r="I56" s="34">
+        <f t="shared" si="13"/>
+        <v>0.78565749999999945</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="35"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>